--- a/Files/FES_svod.xlsx
+++ b/Files/FES_svod.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\!КАРБОНАТЫ\Этап 2_Методика работы с трещиноватыми коллекторами\Материалы от НТЦ\Field N\!IP_Data_Ksenia\Core\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kosac\PycharmProjects\winland_R35\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A5AF5E-3007-4470-80FD-026FDFD6BF11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2145" windowHeight="0" activeTab="1"/>
+    <workbookView xWindow="1440" yWindow="1590" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RelPerm1" sheetId="12" r:id="rId1"/>
@@ -4975,7 +4976,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -5602,7 +5603,7 @@
     <cellStyle name="Название" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Нейтральный" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 6" xfId="42"/>
+    <cellStyle name="Обычный 6" xfId="42" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
     <cellStyle name="Плохой" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Пояснение" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Примечание" xfId="15" builtinId="10" customBuiltin="1"/>
@@ -5885,7 +5886,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -6869,15 +6870,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AS903"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="K13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V1" sqref="V1:V1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="22" max="22" width="20" customWidth="1"/>
     <col min="40" max="40" width="47.42578125" customWidth="1"/>
     <col min="42" max="42" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
